--- a/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Block</t>
   </si>
@@ -45,13 +45,25 @@
     <t>UNTERDRÜCKEN</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>Trigger</t>
   </si>
   <si>
     <t>conds_reg_File</t>
+  </si>
+  <si>
+    <t>Denken Sie während des Betrachtens der Bilder an etwas Neutrales, das mit dem Bild nichts zu tun hat. Das könnten geometrische Figuren, Alltagstätigkeiten oder bekannte Orte sein.</t>
+  </si>
+  <si>
+    <t>Dieses Mal sollen Sie die Position eines uninvolvierten Beobachters einnehmen. Denken Sie über das Bild in einer neutralen Weise nach.</t>
+  </si>
+  <si>
+    <t>Dieses Mal sollen Sie alle aufkommenden Emotionen unterdrücken. Wenn Sie also die Bilder ansehen, verhalten Sie sich so, dass eine außenstehende Person nicht sehen kann, welche Emotionen Sie gerade empfinden</t>
+  </si>
+  <si>
+    <t>instr_3</t>
+  </si>
+  <si>
+    <t>Bitte konzentrieren Sie Ihre Regulationsbemühungen nur auf das Bild, nicht aber auf die Zeiträme zwischen den Bildern.</t>
   </si>
 </sst>
 </file>
@@ -87,10 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -371,39 +384,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
+      <c r="G1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -413,17 +429,20 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -433,17 +452,20 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -453,14 +475,17 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9768"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>

--- a/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Block</t>
   </si>
@@ -54,16 +54,10 @@
     <t>Denken Sie während des Betrachtens der Bilder an etwas Neutrales, das mit dem Bild nichts zu tun hat. Das könnten geometrische Figuren, Alltagstätigkeiten oder bekannte Orte sein.</t>
   </si>
   <si>
-    <t>Dieses Mal sollen Sie die Position eines uninvolvierten Beobachters einnehmen. Denken Sie über das Bild in einer neutralen Weise nach.</t>
-  </si>
-  <si>
-    <t>Dieses Mal sollen Sie alle aufkommenden Emotionen unterdrücken. Wenn Sie also die Bilder ansehen, verhalten Sie sich so, dass eine außenstehende Person nicht sehen kann, welche Emotionen Sie gerade empfinden</t>
-  </si>
-  <si>
-    <t>instr_3</t>
-  </si>
-  <si>
-    <t>Bitte konzentrieren Sie Ihre Regulationsbemühungen nur auf das Bild, nicht aber auf die Zeiträme zwischen den Bildern.</t>
+    <t>Nehmen Sie die Position eines uninvolvierten Beobachters ein. Denken Sie über das Bild in einer neutralen Weise nach.</t>
+  </si>
+  <si>
+    <t>Unterdrücken Sie alle aufkommenden Emotionen. Wenn Sie also die Bilder ansehen, verhalten Sie sich so, dass eine außenstehende Person nicht sehen kann, welche Emotionen Sie gerade empfinden.</t>
   </si>
 </sst>
 </file>
@@ -384,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,7 +390,7 @@
     <col min="5" max="5" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,11 +409,8 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -438,11 +429,8 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -461,11 +449,8 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -483,9 +468,6 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>5</v>

--- a/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/blocks_reg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9768"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>UNTERDRÜCKEN</t>
   </si>
   <si>
-    <t>Trigger</t>
-  </si>
-  <si>
     <t>conds_reg_File</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Unterdrücken Sie alle aufkommenden Emotionen. Wenn Sie also die Bilder ansehen, verhalten Sie sich so, dass eine außenstehende Person nicht sehen kann, welche Emotionen Sie gerade empfinden.</t>
+  </si>
+  <si>
+    <t>TriggerBlockReg</t>
   </si>
 </sst>
 </file>
@@ -381,27 +381,27 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -421,16 +421,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -441,16 +441,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -461,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
